--- a/data/01-12-2025-Categories.xlsx
+++ b/data/01-12-2025-Categories.xlsx
@@ -777,7 +777,7 @@
         <v>45879</v>
       </c>
       <c r="K2" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>45879</v>
       </c>
       <c r="K3" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>45879</v>
       </c>
       <c r="K4" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>45879</v>
       </c>
       <c r="K5" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>45879</v>
       </c>
       <c r="K6" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>45879</v>
       </c>
       <c r="K7" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>45879</v>
       </c>
       <c r="K8" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>45891</v>
       </c>
       <c r="K9" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>45890</v>
       </c>
       <c r="K10" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>45934</v>
       </c>
       <c r="K11" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>45879</v>
       </c>
       <c r="K12" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
         <v>45879</v>
       </c>
       <c r="K13" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>45890</v>
       </c>
       <c r="K14" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>45962</v>
       </c>
       <c r="K15" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>45962</v>
       </c>
       <c r="K16" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
         <v>45975</v>
       </c>
       <c r="K17" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>45984</v>
       </c>
       <c r="K18" s="9">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
   </sheetData>
